--- a/biology/Médecine/Denis_Lazure/Denis_Lazure.xlsx
+++ b/biology/Médecine/Denis_Lazure/Denis_Lazure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Denis Lazure, né le 12 octobre 1925 à Napierville et mort le 23 février 2008 à Montréal, est un psychiatre et homme politique québécois. Réformateur médical et social, praticien, dirigeant, il fut aussi député à l'Assemblée nationale du Québec et ministre.
@@ -512,14 +524,51 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né le 12 octobre 1925 à Napierville, fils de Thomas [Hazeur dit Hazur, dit Azur dit][1] Lazure, fabricant de beurre, et de Berthe Durivage, Denis Lazure entre à l'Université de Montréal, y devient président de l'Association générale des étudiants (1950-1951), y réussit sa médecine et va se spécialiser ensuite à l'Université de Pennsylvanie en pédopsychiatrie.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né le 12 octobre 1925 à Napierville, fils de Thomas [Hazeur dit Hazur, dit Azur dit] Lazure, fabricant de beurre, et de Berthe Durivage, Denis Lazure entre à l'Université de Montréal, y devient président de l'Association générale des étudiants (1950-1951), y réussit sa médecine et va se spécialiser ensuite à l'Université de Pennsylvanie en pédopsychiatrie.
 Il restera toute sa vie combatif et grand sportif amateur, dont au tennis, après avoir établi, comme jeune adulte, un record dans la ligue de hockey interuniversitaire, en faveur de l'équipe Les Carabins de l'Université de Montréal, en comptant cinq buts et en fournissant quatre assistances au cours d'un match.
 Il est le père de quatre enfants, dont l'actrice Gabrielle Lazure est l'aînée.
-Le fonds d’archives de Denis Lazure est conservé au centre d’archives de Québec de Bibliothèque et Archives nationales du Québec[2].
-Carrière médicale
-Comme psychiatre, Denis Lazure devient vite sensible à « l'insensibilité des institutions religieuses à certaines problématiques humaines difficiles », dont :
+Le fonds d’archives de Denis Lazure est conservé au centre d’archives de Québec de Bibliothèque et Archives nationales du Québec.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Denis_Lazure</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Denis_Lazure</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière médicale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Comme psychiatre, Denis Lazure devient vite sensible à « l'insensibilité des institutions religieuses à certaines problématiques humaines difficiles », dont :
 les mères-célibataires (dites « filles-mères ») que ces institutions culpabilisaient et incitaient à leur abandonner les nouveau-nés,
 les « orphelins » non-adoptés (dont surtout les enfants de celles-ci), malmenés, asservis puis gardés comme « malades mentaux » et main-d'œuvre bon marché dans les hôpitaux… dirigés par des nonnes.
 Dès sa première année de résidence en psychiatrie, il découvre et dénonce les travers des institutions psychiatriques et des psychiatres qui y œuvrent. Cet admirateur de Norman Bethune est donc d'abord exclu rapidement de l'immense hôpital Saint-Jean-de-Dieu (ensuite renommé Hôpital Louis-Hippolyte-Lafontaine) et doit terminer sa formation dans le réseau (plus sensé) de l'Université McGill, notamment au Douglas Hospital, où il participe aux premiers essais du largactil auprès du grand Heinz Lehmann.
@@ -537,11 +586,45 @@
 auteur d'une étude sur les soins psychiatriques à la Barbade pour l'Organisation mondiale de la santé,
 réorganisateur des services de santé mentale pour les gouvernements du Québec, de l'Ontario et du Manitoba,
 psychiatre clinicien à l'Hôpital Charles-Lemoyne (de Greenfield Park), de 1986 à 1989,
-psychiatre clinicien à l'Hôpital Louis-Hippolyte-Lafontaine, de 1999 à son décès.
-Carrière politique
-Par deux fois, il échoue à se faire élire au niveau fédéral, sous la bannière du Nouveau Parti démocratique : d'abord comme candidat dans Outremont—Saint-Jean à l'élection partielle fédérale du 29 mai 1967, pour prendre le siège du député libéral Maurice Lamontagne, nommé au Sénat; ensuite, en 1968, dans l'ancienne circonscription de Gamelin, où il arrive troisième (15,00 %) derrière le candidat libéral Arthur Portelance et le conservateur Marcel Faribault.
+psychiatre clinicien à l'Hôpital Louis-Hippolyte-Lafontaine, de 1999 à son décès.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Denis_Lazure</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Denis_Lazure</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Carrière politique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Par deux fois, il échoue à se faire élire au niveau fédéral, sous la bannière du Nouveau Parti démocratique : d'abord comme candidat dans Outremont—Saint-Jean à l'élection partielle fédérale du 29 mai 1967, pour prendre le siège du député libéral Maurice Lamontagne, nommé au Sénat; ensuite, en 1968, dans l'ancienne circonscription de Gamelin, où il arrive troisième (15,00 %) derrière le candidat libéral Arthur Portelance et le conservateur Marcel Faribault.
 Il est élu dans Chambly lors de la première victoire du Parti québécois en 1976 et devient aussitôt ministre des Affaires sociales (1976-1981) du Gouvernement Lévesque.
-Puis il est élu député de Bertrand à la réélection du Parti québécois en 1981. Nommé « ministre d'État au Développement social » (1981-1982), il crée en 1981 l'Office des personnes handicapées du Québec[3].
+Puis il est élu député de Bertrand à la réélection du Parti québécois en 1981. Nommé « ministre d'État au Développement social » (1981-1982), il crée en 1981 l'Office des personnes handicapées du Québec.
 En moins de six ans, ses actions de ministre auront surtout porté sur :
 l'établissement du réseau des garderies ;
 l'aide aux personnes âgées ;
@@ -555,71 +638,110 @@
 Il œuvre comme psychiatre à l'Hôpital Charles-Lemoyne de Greenfield Park de 1986 à 1989.
 Au retrait de Pierre-Marc Johnson, en 1988, lorsque Jacques Parizeau devient chef du Parti québécois, Denis Lazure revient à l'Assemblée nationale comme député de la circonscription de Napierville-La Prairie.
 Mais, n'étant plus renommé ministre et voulant se sentir plus utile qu'un simple député, il quittera définitivement la politique en 1996, peu après Jacques Parizeau.
-L'après-politique
-Il devient président-directeur général de l'Office des personnes handicapées du Québec de 1996 à 1999.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Denis_Lazure</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Denis_Lazure</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>L'après-politique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il devient président-directeur général de l'Office des personnes handicapées du Québec de 1996 à 1999.
 En 1999 il reprend à l'Hôpital Louis-Hippolyte-Lafontaine sa pratique de psychiatre, comme clinicien.
 Cela ne l'empêche pas, lui, le sempiternel redresseur de torts, de devenir la même année (de 1999 à 2001, jusqu'à règlement final) le président du Comité d'appui aux Orphelins de Duplessis, qui réclament du gouvernement du Québec (alors sous la gouverne de Lucien Bouchard puis de Bernard Landry, du Parti québécois) une compensation monétaire pour les affres qu'ils ont jadis subies par la faute de l'État, de l'Église et du Collège des médecins…
-Il décède à Montréal le samedi 23 février 2008 à l'âge de 82 ans[4], à l'hôpital Maisonneuve-Rosemont. Ses obsèques ont lieu à l'Église St-Viateur d'Outremont le samedi suivant.
+Il décède à Montréal le samedi 23 février 2008 à l'âge de 82 ans, à l'hôpital Maisonneuve-Rosemont. Ses obsèques ont lieu à l'Église St-Viateur d'Outremont le samedi suivant.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Denis_Lazure</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Denis_Lazure</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Ancêtres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">(La numérotation utilisée ici est dite « Numérotation de Sosa-Stradonitz »)
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Denis_Lazure</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Denis_Lazure</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>1996 - Denis Lazure, Les enjeux et les acquis en santé mentale (court article) pour l'édition « Spécial 20e anniversaire - La décennie 70 » de la revue Santé mentale au Québec (SMQ)
 2002 - Denis Lazure, Médecin et citoyen - Souvenir, 404 p. [mémoires, autobiographie] — Éditions du Boréal,  (ISBN 2-7646-0195-6)
@@ -627,31 +749,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Denis_Lazure</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Denis_Lazure</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>1961 — officier de l’Ordre national Honneur et Mérite de la république d’Haïti
 1990 — membre honoraire de l’Association médicale du Canada
@@ -660,31 +784,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Denis_Lazure</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Denis_Lazure</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Citations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>« The commission work was exciting and highly reformist ; we blasted the nuns in our report. » — Denis Lazure, dans une entrevue en anglais parue dans le quotidien montréalais The Gazette, le 5 septembre 1979, concernant le rapport de la Commission Bédard (1962) sur la santé mentale.
 Traduction littérale : Le travail de la Commission fut exaltant et hautement réformateur ; nous avons descendu les nonnes dans notre rapport.
